--- a/all_planchette/15.11.2023.xlsx
+++ b/all_planchette/15.11.2023.xlsx
@@ -14,15 +14,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mhK1EZe4lK+GX/1MH+065+ZwuEWUg=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="2B7ho9e7yFGY+Miu/RYJ0aTwe931HnxxebEEwUS0Gy8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="204">
   <si>
     <t>Пара 1</t>
   </si>
@@ -48,129 +48,129 @@
     <t>Троилина В.С.</t>
   </si>
   <si>
+    <t>МТ-42</t>
+  </si>
+  <si>
+    <t>Згонникова Т.Ф.</t>
+  </si>
+  <si>
+    <t>КПК</t>
+  </si>
+  <si>
+    <t>СА-46</t>
+  </si>
+  <si>
+    <t>Панасевич Д.Г.</t>
+  </si>
+  <si>
+    <t>ИКС-31</t>
+  </si>
+  <si>
+    <t>Комов Е.Ю.</t>
+  </si>
+  <si>
+    <t>ИКС-13</t>
+  </si>
+  <si>
+    <t>Швец Н.А.</t>
+  </si>
+  <si>
+    <t>110а</t>
+  </si>
+  <si>
+    <t>ИС-17</t>
+  </si>
+  <si>
+    <t>Зотов М.А.</t>
+  </si>
+  <si>
+    <t>СА-44</t>
+  </si>
+  <si>
+    <t>Дегтярев С.С.</t>
+  </si>
+  <si>
+    <t>ИКС-11</t>
+  </si>
+  <si>
+    <t>Пильгун И.С.</t>
+  </si>
+  <si>
+    <t>114а</t>
+  </si>
+  <si>
+    <t>МТ-43</t>
+  </si>
+  <si>
+    <t>Ермолина Л.В.</t>
+  </si>
+  <si>
+    <t>ИС-13</t>
+  </si>
+  <si>
+    <t>Смолянинова В.А.</t>
+  </si>
+  <si>
+    <t>ИКС-12</t>
+  </si>
+  <si>
+    <t>Кравченко И.Ю.</t>
+  </si>
+  <si>
+    <t>406а</t>
+  </si>
+  <si>
+    <t>СА-16</t>
+  </si>
+  <si>
+    <t>Небратенко Л.В.</t>
+  </si>
+  <si>
+    <t>СА-15</t>
+  </si>
+  <si>
+    <t>Упорова Л.В.</t>
+  </si>
+  <si>
+    <t>209а</t>
+  </si>
+  <si>
+    <t>СА-17</t>
+  </si>
+  <si>
+    <t>Марышева О.В.</t>
+  </si>
+  <si>
+    <t>СА-13</t>
+  </si>
+  <si>
+    <t>Грицай О.П.</t>
+  </si>
+  <si>
+    <t>210а</t>
+  </si>
+  <si>
+    <t>ПИ-42</t>
+  </si>
+  <si>
+    <t>Сулавко С.Н.</t>
+  </si>
+  <si>
+    <t>ИС-14</t>
+  </si>
+  <si>
+    <t>Рыбальченко Т.Б.</t>
+  </si>
+  <si>
+    <t>ПИ-41</t>
+  </si>
+  <si>
     <t>СА-36</t>
   </si>
   <si>
     <t>Зурова А.Е.</t>
   </si>
   <si>
-    <t>КПК</t>
-  </si>
-  <si>
-    <t>СА-46</t>
-  </si>
-  <si>
-    <t>Панасевич Д.Г.</t>
-  </si>
-  <si>
-    <t>ИКС-31</t>
-  </si>
-  <si>
-    <t>Комов Е.Ю.</t>
-  </si>
-  <si>
-    <t>ИКС-13</t>
-  </si>
-  <si>
-    <t>Швец Н.А.</t>
-  </si>
-  <si>
-    <t>110а</t>
-  </si>
-  <si>
-    <t>СА-44</t>
-  </si>
-  <si>
-    <t>Дегтярев С.С.</t>
-  </si>
-  <si>
-    <t>ИКС-11</t>
-  </si>
-  <si>
-    <t>Пильгун И.С.</t>
-  </si>
-  <si>
-    <t>114а</t>
-  </si>
-  <si>
-    <t>МТ-43</t>
-  </si>
-  <si>
-    <t>Ермолина Л.В.</t>
-  </si>
-  <si>
-    <t>ИС-13</t>
-  </si>
-  <si>
-    <t>Смолянинова В.А.</t>
-  </si>
-  <si>
-    <t>ИКС-12</t>
-  </si>
-  <si>
-    <t>Кравченко И.Ю.</t>
-  </si>
-  <si>
-    <t>406а</t>
-  </si>
-  <si>
-    <t>ИС-17</t>
-  </si>
-  <si>
-    <t>Зотов М.А.</t>
-  </si>
-  <si>
-    <t>СА-16</t>
-  </si>
-  <si>
-    <t>Небратенко Л.В.</t>
-  </si>
-  <si>
-    <t>СА-15</t>
-  </si>
-  <si>
-    <t>Упорова Л.В.</t>
-  </si>
-  <si>
-    <t>209а</t>
-  </si>
-  <si>
-    <t>МТ-42</t>
-  </si>
-  <si>
-    <t>Згонникова Т.Ф.</t>
-  </si>
-  <si>
-    <t>СА-17</t>
-  </si>
-  <si>
-    <t>Марышева О.В.</t>
-  </si>
-  <si>
-    <t>СА-13</t>
-  </si>
-  <si>
-    <t>Грицай О.П.</t>
-  </si>
-  <si>
-    <t>210а</t>
-  </si>
-  <si>
-    <t>ПИ-42</t>
-  </si>
-  <si>
-    <t>Сулавко С.Н.</t>
-  </si>
-  <si>
-    <t>ИС-14</t>
-  </si>
-  <si>
-    <t>Рыбальченко Т.Б.</t>
-  </si>
-  <si>
-    <t>ПИ-41</t>
-  </si>
-  <si>
     <t>ПИ-43</t>
   </si>
   <si>
@@ -342,6 +342,15 @@
     <t>Рожченко Т.В.</t>
   </si>
   <si>
+    <t>ИКС-11/СА-14</t>
+  </si>
+  <si>
+    <t>СА-31</t>
+  </si>
+  <si>
+    <t>Алексеенко О.Н.</t>
+  </si>
+  <si>
     <t>СА-42</t>
   </si>
   <si>
@@ -354,12 +363,6 @@
     <t>Соколян В.В.</t>
   </si>
   <si>
-    <t>СА-31</t>
-  </si>
-  <si>
-    <t>Алексеенко О.Н.</t>
-  </si>
-  <si>
     <t>ИС-26</t>
   </si>
   <si>
@@ -372,9 +375,6 @@
     <t>Рязанова Л.Е.</t>
   </si>
   <si>
-    <t>Барна Н.В.</t>
-  </si>
-  <si>
     <t>ИКС-33</t>
   </si>
   <si>
@@ -450,15 +450,15 @@
     <t>Мельникова М.В.</t>
   </si>
   <si>
+    <t>СК-41</t>
+  </si>
+  <si>
+    <t>Махаева П.А.</t>
+  </si>
+  <si>
     <t>Коханова Л.Н.</t>
   </si>
   <si>
-    <t>СК-41</t>
-  </si>
-  <si>
-    <t>Махаева П.А.</t>
-  </si>
-  <si>
     <t>Ужегова Е.А.</t>
   </si>
   <si>
@@ -525,88 +525,91 @@
     <t>СА-27</t>
   </si>
   <si>
+    <t>Петрова М.Е.</t>
+  </si>
+  <si>
+    <t>ПОКС-44w</t>
+  </si>
+  <si>
+    <t>ИБТ-22</t>
+  </si>
+  <si>
+    <t>Скороходов Г.Ю.</t>
+  </si>
+  <si>
+    <t>Корбан С.Н.</t>
+  </si>
+  <si>
+    <t>классный час</t>
+  </si>
+  <si>
+    <t>Бурда Е.Г.</t>
+  </si>
+  <si>
+    <t>ИС-38</t>
+  </si>
+  <si>
+    <t>Пара 5</t>
+  </si>
+  <si>
+    <t>78.0% заполненость корпус Тургеневский</t>
+  </si>
+  <si>
+    <t>Лебедева М.В.</t>
+  </si>
+  <si>
+    <t>ИС-27</t>
+  </si>
+  <si>
+    <t>ИС-28</t>
+  </si>
+  <si>
+    <t>Нещадим К.С.</t>
+  </si>
+  <si>
+    <t>СА-41</t>
+  </si>
+  <si>
+    <t>Попова А.Ю.</t>
+  </si>
+  <si>
+    <t>СА-35</t>
+  </si>
+  <si>
+    <t>Ващенко В.А.</t>
+  </si>
+  <si>
+    <t>ИС-34</t>
+  </si>
+  <si>
+    <t>СА-25/СА-24</t>
+  </si>
+  <si>
+    <t>ИС-35</t>
+  </si>
+  <si>
+    <t>СА-37</t>
+  </si>
+  <si>
+    <t>Родченко Т.В.</t>
+  </si>
+  <si>
+    <t>Пара 6</t>
+  </si>
+  <si>
+    <t>60.0% заполненость корпус Тургеневский</t>
+  </si>
+  <si>
+    <t>СА-24</t>
+  </si>
+  <si>
+    <t>ИБТ-23</t>
+  </si>
+  <si>
+    <t>Трищук С.А.</t>
+  </si>
+  <si>
     <t>СА-25</t>
-  </si>
-  <si>
-    <t>Романенко Е.Л.</t>
-  </si>
-  <si>
-    <t>Петрова М.Е.</t>
-  </si>
-  <si>
-    <t>ИБТ-22</t>
-  </si>
-  <si>
-    <t>Скороходов Г.Ю.</t>
-  </si>
-  <si>
-    <t>ПОКС-44w</t>
-  </si>
-  <si>
-    <t>Корбан С.Н.</t>
-  </si>
-  <si>
-    <t>Бурда Е.Г.</t>
-  </si>
-  <si>
-    <t>ИС-38</t>
-  </si>
-  <si>
-    <t>Пара 5</t>
-  </si>
-  <si>
-    <t>78.0% заполненость корпус Тургеневский</t>
-  </si>
-  <si>
-    <t>Лебедева М.В.</t>
-  </si>
-  <si>
-    <t>ИС-27</t>
-  </si>
-  <si>
-    <t>ИС-28</t>
-  </si>
-  <si>
-    <t>Нещадим К.С.</t>
-  </si>
-  <si>
-    <t>СА-41</t>
-  </si>
-  <si>
-    <t>Попова А.Ю.</t>
-  </si>
-  <si>
-    <t>СА-35</t>
-  </si>
-  <si>
-    <t>Ващенко В.А.</t>
-  </si>
-  <si>
-    <t>ИС-34</t>
-  </si>
-  <si>
-    <t>СА-24</t>
-  </si>
-  <si>
-    <t>ИС-35</t>
-  </si>
-  <si>
-    <t>Родченко Т.В.</t>
-  </si>
-  <si>
-    <t>СА-37</t>
-  </si>
-  <si>
-    <t>Пара 6</t>
-  </si>
-  <si>
-    <t>60.0% заполненость корпус Тургеневский</t>
-  </si>
-  <si>
-    <t>ИБТ-23</t>
-  </si>
-  <si>
-    <t>Трищук С.А.</t>
   </si>
   <si>
     <t>ИС-33</t>
@@ -737,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -765,15 +768,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -788,6 +791,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -1125,29 +1131,27 @@
       <c r="A5" s="2">
         <v>104.0</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="2">
         <v>322.0</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="2">
         <v>106.0</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="2">
         <v>323.0</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="2">
@@ -1193,64 +1197,68 @@
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="2">
         <v>326.0</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="2">
         <v>111.0</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="7">
         <v>401.0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="2">
         <v>114.0</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="7">
         <v>404.0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2">
         <v>406.0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -1258,27 +1266,23 @@
         <v>118.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="2">
         <v>121.0</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="2">
         <v>408.0</v>
       </c>
@@ -1313,16 +1317,10 @@
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="2">
         <v>411.0</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -1330,47 +1328,45 @@
         <v>210.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2">
         <v>412.0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="2">
         <v>414.0</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="2">
         <v>212.0</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="2">
         <v>415.0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -1378,27 +1374,31 @@
         <v>213.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2">
         <v>415.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="2">
         <v>214.0</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="B21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="D21" s="2">
         <v>415.0</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -1442,17 +1442,17 @@
       <c r="D23" s="2">
         <v>418.0</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="2">
         <v>217.0</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="2">
@@ -1518,27 +1518,27 @@
       <c r="D27" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
         <v>306.0</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2">
         <v>307.0</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="2" t="s">
         <v>72</v>
       </c>
@@ -1574,15 +1574,15 @@
       <c r="D31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
         <v>314.0</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="2" t="s">
         <v>79</v>
       </c>
@@ -1603,8 +1603,8 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="14"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="2" t="s">
         <v>82</v>
       </c>
@@ -1618,13 +1618,13 @@
       <c r="D35" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="15"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="2" t="s">
         <v>84</v>
       </c>
@@ -1642,13 +1642,13 @@
       <c r="D37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="15"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="2" t="s">
         <v>88</v>
       </c>
@@ -1674,14 +1674,14 @@
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1705,7 +1705,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="10.38"/>
-    <col customWidth="1" min="2" max="2" width="11.13"/>
+    <col customWidth="1" min="2" max="2" width="13.25"/>
     <col customWidth="1" min="3" max="3" width="15.88"/>
     <col customWidth="1" min="4" max="4" width="7.63"/>
     <col customWidth="1" min="5" max="5" width="14.13"/>
@@ -1763,7 +1763,7 @@
         <v>103.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -1782,17 +1782,17 @@
       <c r="A5" s="2">
         <v>104.0</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>9</v>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>322.0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>97</v>
@@ -1892,10 +1892,10 @@
         <v>401.0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -1903,7 +1903,7 @@
         <v>114.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>105</v>
@@ -1912,21 +1912,21 @@
         <v>404.0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2">
         <v>406.0</v>
@@ -1935,7 +1935,7 @@
         <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -1943,35 +1943,35 @@
         <v>118.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="2">
         <v>121.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="D14" s="2">
         <v>408.0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -1998,20 +1998,14 @@
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>108</v>
+      <c r="C16" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="D16" s="2">
         <v>411.0</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -2022,7 +2016,7 @@
         <v>64</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D17" s="2">
         <v>412.0</v>
@@ -2031,27 +2025,21 @@
         <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="D18" s="7">
         <v>414.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -2059,47 +2047,47 @@
         <v>212.0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D19" s="2">
         <v>415.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="2">
         <v>213.0</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>116</v>
-      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="2">
         <v>415.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="2">
         <v>214.0</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="B21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="D21" s="2">
         <v>415.0</v>
       </c>
@@ -2107,7 +2095,7 @@
         <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -2154,10 +2142,10 @@
       <c r="A24" s="2">
         <v>217.0</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="2">
@@ -2174,10 +2162,10 @@
       <c r="A25" s="2">
         <v>220.0</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D25" s="2">
@@ -2194,8 +2182,8 @@
       <c r="A26" s="2">
         <v>303.0</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="2">
         <v>422.0</v>
       </c>
@@ -2219,8 +2207,8 @@
       <c r="D27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
@@ -2235,15 +2223,15 @@
       <c r="D28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2">
         <v>307.0</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="2" t="s">
         <v>72</v>
       </c>
@@ -2255,7 +2243,7 @@
         <v>310.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>74</v>
@@ -2263,20 +2251,24 @@
       <c r="D30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="2">
         <v>312.0</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="D31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
@@ -2291,15 +2283,15 @@
       <c r="D32" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="2" t="s">
         <v>81</v>
       </c>
@@ -2308,8 +2300,8 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="14"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2323,13 +2315,13 @@
       <c r="D35" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="2" t="s">
         <v>84</v>
       </c>
@@ -2342,18 +2334,18 @@
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="15"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="15"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="2" t="s">
         <v>88</v>
       </c>
@@ -2379,13 +2371,13 @@
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="11"/>
+      <c r="E40" s="10"/>
       <c r="F40" s="14"/>
     </row>
   </sheetData>
@@ -2435,8 +2427,8 @@
       <c r="A2" s="2">
         <v>5.0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="2">
         <v>316.0</v>
       </c>
@@ -2451,8 +2443,8 @@
       <c r="A3" s="2">
         <v>6.0</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="2">
         <v>318.0</v>
       </c>
@@ -2467,17 +2459,13 @@
       <c r="A4" s="2">
         <v>103.0</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="2">
         <v>320.0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>96</v>
@@ -2487,11 +2475,11 @@
       <c r="A5" s="2">
         <v>104.0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>9</v>
+      <c r="C5" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="D5" s="2">
         <v>322.0</v>
@@ -2507,10 +2495,10 @@
       <c r="A6" s="2">
         <v>106.0</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>130</v>
       </c>
       <c r="D6" s="2">
@@ -2557,7 +2545,7 @@
         <v>325.0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>16</v>
@@ -2588,7 +2576,7 @@
         <v>111.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>104</v>
@@ -2617,30 +2605,30 @@
         <v>404.0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2">
         <v>406.0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -2651,43 +2639,43 @@
         <v>57</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="2">
-        <v>121.0</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>30</v>
+        <v>118.0</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2">
         <v>408.0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="2">
-        <v>122.0</v>
+        <v>121.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="D15" s="2">
         <v>410.0</v>
@@ -2700,34 +2688,34 @@
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>108</v>
+      <c r="A16" s="2">
+        <v>122.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D16" s="2">
         <v>411.0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="2">
-        <v>210.0</v>
+      <c r="A17" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="D17" s="2">
         <v>412.0</v>
@@ -2740,14 +2728,14 @@
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>111</v>
+      <c r="A18" s="2">
+        <v>210.0</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="D18" s="2">
         <v>414.0</v>
@@ -2756,58 +2744,58 @@
         <v>135</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="2">
-        <v>212.0</v>
+      <c r="A19" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2">
         <v>415.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="2">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D20" s="2">
         <v>415.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="2">
-        <v>214.0</v>
+        <v>213.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>2</v>
+        <v>136</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D21" s="2">
         <v>415.0</v>
@@ -2816,18 +2804,18 @@
         <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="2">
-        <v>216.0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>214.0</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="D22" s="2">
         <v>416.0</v>
@@ -2840,34 +2828,34 @@
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>56</v>
+      <c r="A23" s="2">
+        <v>216.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D23" s="2">
         <v>418.0</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="11" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="2">
-        <v>217.0</v>
+      <c r="A24" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D24" s="2">
         <v>420.0</v>
@@ -2881,13 +2869,13 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="2">
-        <v>220.0</v>
+        <v>217.0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>420.0</v>
@@ -2901,13 +2889,13 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="2">
-        <v>303.0</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>141</v>
+        <v>220.0</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D26" s="2">
         <v>422.0</v>
@@ -2921,71 +2909,71 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="2">
-        <v>305.0</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>142</v>
+        <v>303.0</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
-        <v>306.0</v>
+        <v>305.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2">
-        <v>307.0</v>
+        <v>306.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2">
-        <v>310.0</v>
+        <v>307.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>146</v>
@@ -2993,19 +2981,19 @@
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="2">
-        <v>312.0</v>
+        <v>310.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>147</v>
@@ -3013,26 +3001,30 @@
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
-        <v>314.0</v>
+        <v>312.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="A33" s="2">
+        <v>314.0</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="D33" s="2" t="s">
         <v>81</v>
       </c>
@@ -3040,9 +3032,11 @@
       <c r="F33" s="9"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="A34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="2" t="s">
         <v>82</v>
       </c>
@@ -3051,8 +3045,8 @@
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="14"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="2" t="s">
         <v>83</v>
       </c>
@@ -3061,8 +3055,8 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="9"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="2" t="s">
         <v>84</v>
       </c>
@@ -3074,14 +3068,12 @@
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+      <c r="A37" s="10"/>
       <c r="D37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="15"/>
@@ -3112,14 +3104,14 @@
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3184,8 +3176,8 @@
       <c r="A3" s="2">
         <v>6.0</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="2">
         <v>318.0</v>
       </c>
@@ -3193,15 +3185,15 @@
         <v>103</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="2">
         <v>103.0</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="2">
         <v>320.0</v>
       </c>
@@ -3246,7 +3238,7 @@
         <v>323.0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>98</v>
@@ -3265,10 +3257,10 @@
       <c r="D7" s="2">
         <v>324.0</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3297,7 +3289,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>100</v>
@@ -3305,10 +3297,10 @@
       <c r="D9" s="2">
         <v>325.0</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3317,7 +3309,7 @@
         <v>111.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>104</v>
@@ -3336,24 +3328,24 @@
       <c r="A11" s="2">
         <v>114.0</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="2">
         <v>326.0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="2">
         <v>401.0</v>
       </c>
@@ -3361,15 +3353,15 @@
         <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="2">
         <v>118.0</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="2">
         <v>404.0</v>
       </c>
@@ -3397,7 +3389,7 @@
         <v>157</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -3411,7 +3403,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -3430,10 +3422,10 @@
         <v>408.0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -3441,10 +3433,10 @@
         <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D17" s="2">
         <v>410.0</v>
@@ -3464,7 +3456,7 @@
         <v>136</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2">
         <v>411.0</v>
@@ -3478,10 +3470,10 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+        <v>41</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="2">
         <v>412.0</v>
       </c>
@@ -3500,7 +3492,7 @@
         <v>162</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D20" s="2">
         <v>414.0</v>
@@ -3509,7 +3501,7 @@
         <v>163</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -3520,7 +3512,7 @@
         <v>135</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D21" s="2">
         <v>415.0</v>
@@ -3529,7 +3521,7 @@
         <v>164</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -3546,7 +3538,7 @@
         <v>415.0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>165</v>
@@ -3576,14 +3568,14 @@
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="2">
-        <v>416.0</v>
+        <v>418.0</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>166</v>
@@ -3603,13 +3595,13 @@
         <v>33</v>
       </c>
       <c r="D25" s="2">
-        <v>418.0</v>
+        <v>420.0</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -3622,14 +3614,14 @@
       <c r="C26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="2">
-        <v>420.0</v>
+      <c r="D26" s="7">
+        <v>422.0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -3637,20 +3629,16 @@
         <v>303.0</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="7">
-        <v>422.0</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="D27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
@@ -3663,10 +3651,14 @@
         <v>69</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+        <v>71</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2">
@@ -3679,13 +3671,13 @@
         <v>120</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
@@ -3699,23 +3691,21 @@
         <v>145</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>173</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="2">
         <v>310.0</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="D31" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -3725,122 +3715,117 @@
         <v>312.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+        <v>79</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2">
         <v>314.0</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>122</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>147</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="9"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="9"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
+        <v>87</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="9"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="9"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="D40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>90</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3864,7 +3849,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="10.5"/>
-    <col customWidth="1" min="2" max="2" width="8.25"/>
+    <col customWidth="1" min="2" max="2" width="13.0"/>
     <col customWidth="1" min="3" max="3" width="17.13"/>
     <col customWidth="1" min="4" max="4" width="7.63"/>
     <col customWidth="1" min="5" max="5" width="11.75"/>
@@ -3876,10 +3861,10 @@
         <v>45245.0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -3901,13 +3886,13 @@
       <c r="A3" s="2">
         <v>6.0</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="2">
         <v>318.0</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="2">
@@ -3917,13 +3902,13 @@
         <v>163</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" s="2">
         <v>320.0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>96</v>
@@ -3943,7 +3928,7 @@
         <v>322.0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>97</v>
@@ -3963,7 +3948,7 @@
         <v>323.0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>98</v>
@@ -4006,7 +3991,7 @@
         <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -4014,7 +3999,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>100</v>
@@ -4046,64 +4031,64 @@
         <v>162</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="2">
         <v>114.0</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="2">
         <v>404.0</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="2">
         <v>406.0</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="2">
         <v>118.0</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+        <v>31</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="2">
         <v>121.0</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>182</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="D14" s="2">
         <v>408.0</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="2">
@@ -4126,19 +4111,19 @@
         <v>36</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D16" s="2">
         <v>411.0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -4149,7 +4134,7 @@
         <v>131</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D17" s="2">
         <v>412.0</v>
@@ -4163,13 +4148,7 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2">
         <v>414.0</v>
@@ -4178,23 +4157,27 @@
         <v>157</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="2">
         <v>212.0</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="D19" s="2">
         <v>415.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -4228,7 +4211,7 @@
         <v>133</v>
       </c>
       <c r="D21" s="2">
-        <v>416.0</v>
+        <v>418.0</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>126</v>
@@ -4241,104 +4224,104 @@
       <c r="A22" s="2">
         <v>216.0</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="2">
-        <v>418.0</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>168</v>
+        <v>420.0</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="2">
         <v>420.0</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>154</v>
+      <c r="E23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="2">
         <v>217.0</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="2">
-        <v>420.0</v>
+        <v>422.0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="2">
         <v>220.0</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="2">
-        <v>422.0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="D25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="2">
         <v>303.0</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="2">
         <v>305.0</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>173</v>
+        <v>72</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -4352,14 +4335,10 @@
         <v>120</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>146</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2">
@@ -4372,28 +4351,28 @@
         <v>145</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2">
         <v>310.0</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="7" t="s">
         <v>189</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>147</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="2">
@@ -4403,13 +4382,13 @@
         <v>128</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+        <v>81</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
@@ -4422,7 +4401,7 @@
         <v>122</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -4431,67 +4410,62 @@
       <c r="A33" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="11"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+        <v>84</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="11"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>90</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="11"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+        <v>93</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4527,10 +4501,10 @@
         <v>45245.0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -4545,30 +4519,30 @@
       <c r="D2" s="2">
         <v>316.0</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="2">
         <v>6.0</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="2">
         <v>318.0</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="2">
         <v>103.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" s="2">
         <v>320.0</v>
@@ -4601,7 +4575,7 @@
         <v>106.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>130</v>
@@ -4650,10 +4624,10 @@
         <v>325.0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -4680,8 +4654,8 @@
       <c r="A10" s="2">
         <v>111.0</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="7">
         <v>401.0</v>
       </c>
@@ -4689,41 +4663,41 @@
         <v>162</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="2">
         <v>114.0</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="2">
         <v>404.0</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="2">
         <v>406.0</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="2">
         <v>118.0</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -4732,11 +4706,11 @@
       <c r="A14" s="2">
         <v>121.0</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>182</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="D14" s="2">
         <v>408.0</v>
@@ -4745,7 +4719,7 @@
         <v>132</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -4761,8 +4735,8 @@
       <c r="D15" s="2">
         <v>410.0</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2" t="s">
@@ -4777,34 +4751,38 @@
       <c r="D16" s="2">
         <v>411.0</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="E16" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="2">
         <v>210.0</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="2">
         <v>412.0</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="2">
         <v>414.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>194</v>
@@ -4823,7 +4801,7 @@
         <v>150</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -4857,13 +4835,13 @@
         <v>138</v>
       </c>
       <c r="D21" s="2">
-        <v>416.0</v>
+        <v>418.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -4873,29 +4851,29 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="2">
-        <v>418.0</v>
+        <v>420.0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="2">
-        <v>420.0</v>
+        <v>422.0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -4903,20 +4881,16 @@
         <v>217.0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="2">
-        <v>422.0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>67</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="2">
@@ -4929,51 +4903,51 @@
         <v>62</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="2">
         <v>303.0</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="2">
         <v>305.0</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
         <v>306.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>154</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -4982,10 +4956,10 @@
       <c r="A29" s="2">
         <v>307.0</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -4999,42 +4973,42 @@
         <v>189</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="2">
         <v>312.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
         <v>314.0</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+        <v>83</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2" t="s">
@@ -5043,52 +5017,47 @@
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="11"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>90</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="6"/>
       <c r="D35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+        <v>93</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5120,14 +5089,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="22">
+      <c r="A1" s="23">
         <v>45245.0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" s="23" t="s">
         <v>197</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>198</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -5137,25 +5106,25 @@
       <c r="A2" s="8">
         <v>5.0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="8">
         <v>316.0</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="8">
         <v>6.0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="8">
         <v>318.0</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="8">
@@ -5165,20 +5134,20 @@
         <v>166</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" s="8">
         <v>320.0</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="25">
+      <c r="A5" s="26">
         <v>104.0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>127</v>
@@ -5187,10 +5156,10 @@
         <v>322.0</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
@@ -5227,7 +5196,7 @@
         <v>324.0</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>154</v>
@@ -5247,27 +5216,27 @@
         <v>325.0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>153</v>
       </c>
       <c r="D9" s="8">
         <v>326.0</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>194</v>
@@ -5277,8 +5246,8 @@
       <c r="A10" s="8">
         <v>111.0</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="8">
         <v>401.0</v>
       </c>
@@ -5286,27 +5255,27 @@
         <v>162</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="8">
         <v>114.0</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="8">
         <v>404.0</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="8">
         <v>406.0</v>
       </c>
@@ -5316,16 +5285,16 @@
         <v>118.0</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>183</v>
-      </c>
       <c r="D13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="8">
@@ -5340,8 +5309,8 @@
       <c r="D14" s="8">
         <v>408.0</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="8">
@@ -5356,46 +5325,46 @@
       <c r="D15" s="8">
         <v>410.0</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="8">
         <v>411.0</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="8">
         <v>210.0</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="8">
         <v>412.0</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="26"/>
+        <v>41</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="8">
         <v>414.0</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>60</v>
@@ -5415,18 +5384,18 @@
         <v>415.0</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="8">
         <v>213.0</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="8">
         <v>416.0</v>
       </c>
@@ -5434,7 +5403,7 @@
         <v>161</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -5451,7 +5420,7 @@
         <v>418.0</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>155</v>
@@ -5461,29 +5430,29 @@
       <c r="A22" s="8">
         <v>216.0</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="8">
         <v>420.0</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="8">
         <v>422.0</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>67</v>
@@ -5493,13 +5462,13 @@
       <c r="A24" s="8">
         <v>217.0</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="8">
@@ -5509,41 +5478,41 @@
         <v>157</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="8">
         <v>303.0</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>171</v>
+      <c r="C26" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="8">
         <v>305.0</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="8">
@@ -5558,34 +5527,34 @@
       <c r="D28" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="8">
         <v>307.0</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="8">
         <v>310.0</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="7" t="s">
         <v>189</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="8">
@@ -5595,13 +5564,13 @@
         <v>163</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="8">
@@ -5611,59 +5580,59 @@
         <v>150</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="8" t="s">
         <v>87</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="24"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="24"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/all_planchette/15.11.2023.xlsx
+++ b/all_planchette/15.11.2023.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="206">
   <si>
     <t>Пара 1</t>
   </si>
@@ -492,6 +492,12 @@
     <t>Алешина В.В.</t>
   </si>
   <si>
+    <t>СА-37</t>
+  </si>
+  <si>
+    <t>Ягелович Е.В.</t>
+  </si>
+  <si>
     <t>ИКС-22</t>
   </si>
   <si>
@@ -549,6 +555,9 @@
     <t>ИС-38</t>
   </si>
   <si>
+    <t>тен</t>
+  </si>
+  <si>
     <t>Пара 5</t>
   </si>
   <si>
@@ -561,34 +570,31 @@
     <t>ИС-27</t>
   </si>
   <si>
+    <t>СА-41</t>
+  </si>
+  <si>
+    <t>Попова А.Ю.</t>
+  </si>
+  <si>
+    <t>СА-35</t>
+  </si>
+  <si>
+    <t>Ващенко В.А.</t>
+  </si>
+  <si>
+    <t>ИС-34</t>
+  </si>
+  <si>
     <t>ИС-28</t>
   </si>
   <si>
     <t>Нещадим К.С.</t>
   </si>
   <si>
-    <t>СА-41</t>
-  </si>
-  <si>
-    <t>Попова А.Ю.</t>
-  </si>
-  <si>
-    <t>СА-35</t>
-  </si>
-  <si>
-    <t>Ващенко В.А.</t>
-  </si>
-  <si>
-    <t>ИС-34</t>
-  </si>
-  <si>
     <t>СА-25/СА-24</t>
   </si>
   <si>
     <t>ИС-35</t>
-  </si>
-  <si>
-    <t>СА-37</t>
   </si>
   <si>
     <t>Родченко Т.В.</t>
@@ -3360,13 +3366,17 @@
       <c r="A13" s="2">
         <v>118.0</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="D13" s="2">
         <v>404.0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>133</v>
@@ -3386,7 +3396,7 @@
         <v>406.0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>38</v>
@@ -3397,7 +3407,7 @@
         <v>121.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -3462,10 +3472,10 @@
         <v>411.0</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -3478,7 +3488,7 @@
         <v>412.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>134</v>
@@ -3489,7 +3499,7 @@
         <v>212.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>116</v>
@@ -3498,7 +3508,7 @@
         <v>414.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>114</v>
@@ -3518,7 +3528,7 @@
         <v>415.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>43</v>
@@ -3541,7 +3551,7 @@
         <v>42</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -3578,7 +3588,7 @@
         <v>418.0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>141</v>
@@ -3601,7 +3611,7 @@
         <v>64</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -3618,7 +3628,7 @@
         <v>422.0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>67</v>
@@ -3629,10 +3639,10 @@
         <v>303.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>70</v>
@@ -3677,7 +3687,7 @@
         <v>49</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
@@ -3702,7 +3712,7 @@
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>78</v>
@@ -3718,7 +3728,7 @@
         <v>113</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>79</v>
@@ -3816,7 +3826,7 @@
         <v>93</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>90</v>
@@ -3857,14 +3867,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="1">
-        <v>45245.0</v>
+      <c r="A1" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -3899,10 +3909,10 @@
         <v>103.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D4" s="2">
         <v>320.0</v>
@@ -3919,7 +3929,7 @@
         <v>104.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>127</v>
@@ -3928,7 +3938,7 @@
         <v>322.0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>97</v>
@@ -3939,7 +3949,7 @@
         <v>106.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>130</v>
@@ -3991,7 +4001,7 @@
         <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -4011,7 +4021,7 @@
         <v>136</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -4019,7 +4029,7 @@
         <v>111.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>12</v>
@@ -4028,7 +4038,7 @@
         <v>401.0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>21</v>
@@ -4063,10 +4073,10 @@
         <v>118.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>31</v>
@@ -4079,10 +4089,10 @@
         <v>121.0</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D14" s="2">
         <v>408.0</v>
@@ -4120,10 +4130,10 @@
         <v>411.0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -4140,7 +4150,7 @@
         <v>412.0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>134</v>
@@ -4154,7 +4164,7 @@
         <v>414.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>114</v>
@@ -4174,7 +4184,7 @@
         <v>415.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>43</v>
@@ -4185,10 +4195,10 @@
         <v>213.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="D20" s="2">
         <v>416.0</v>
@@ -4205,7 +4215,7 @@
         <v>214.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>133</v>
@@ -4224,13 +4234,11 @@
       <c r="A22" s="2">
         <v>216.0</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
       <c r="D22" s="2">
         <v>420.0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>154</v>
@@ -4257,7 +4265,7 @@
         <v>217.0</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>33</v>
@@ -4266,7 +4274,7 @@
         <v>422.0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>67</v>
@@ -4293,10 +4301,10 @@
         <v>303.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>71</v>
@@ -4305,7 +4313,7 @@
         <v>129</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -4318,7 +4326,7 @@
         <v>72</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>146</v>
@@ -4354,7 +4362,7 @@
         <v>78</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>147</v>
@@ -4366,7 +4374,7 @@
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>79</v>
@@ -4382,7 +4390,7 @@
         <v>128</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>81</v>
@@ -4426,7 +4434,7 @@
         <v>84</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>90</v>
@@ -4501,10 +4509,10 @@
         <v>45245.0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -4539,10 +4547,10 @@
         <v>103.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D4" s="2">
         <v>320.0</v>
@@ -4555,7 +4563,7 @@
         <v>104.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>127</v>
@@ -4575,7 +4583,7 @@
         <v>106.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>130</v>
@@ -4584,7 +4592,7 @@
         <v>323.0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>98</v>
@@ -4604,7 +4612,7 @@
         <v>324.0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>65</v>
@@ -4624,10 +4632,10 @@
         <v>325.0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -4647,7 +4655,7 @@
         <v>136</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -4660,7 +4668,7 @@
         <v>401.0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>21</v>
@@ -4687,8 +4695,12 @@
       <c r="D12" s="2">
         <v>406.0</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="E12" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="2">
@@ -4707,19 +4719,13 @@
         <v>121.0</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D14" s="2">
         <v>408.0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -4743,7 +4749,7 @@
         <v>36</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>12</v>
@@ -4782,10 +4788,10 @@
         <v>414.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -4809,7 +4815,7 @@
         <v>213.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>133</v>
@@ -4818,7 +4824,7 @@
         <v>416.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>141</v>
@@ -4829,7 +4835,7 @@
         <v>214.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>138</v>
@@ -4838,7 +4844,7 @@
         <v>418.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>155</v>
@@ -4870,7 +4876,7 @@
         <v>422.0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>67</v>
@@ -4881,10 +4887,10 @@
         <v>217.0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>70</v>
@@ -4897,7 +4903,7 @@
         <v>220.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>62</v>
@@ -4913,10 +4919,10 @@
         <v>303.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>72</v>
@@ -4941,7 +4947,7 @@
         <v>306.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>154</v>
@@ -4970,7 +4976,7 @@
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>81</v>
@@ -4983,10 +4989,10 @@
         <v>312.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>82</v>
@@ -4999,10 +5005,10 @@
         <v>314.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>83</v>
@@ -5020,7 +5026,7 @@
         <v>84</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>90</v>
@@ -5093,10 +5099,10 @@
         <v>45245.0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -5131,10 +5137,10 @@
         <v>103.0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D4" s="8">
         <v>320.0</v>
@@ -5147,7 +5153,7 @@
         <v>104.0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>127</v>
@@ -5156,10 +5162,10 @@
         <v>322.0</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
@@ -5167,7 +5173,7 @@
         <v>106.0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>130</v>
@@ -5176,7 +5182,7 @@
         <v>323.0</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>98</v>
@@ -5196,7 +5202,7 @@
         <v>324.0</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>154</v>
@@ -5216,10 +5222,10 @@
         <v>325.0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -5236,10 +5242,10 @@
         <v>326.0</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -5252,7 +5258,7 @@
         <v>401.0</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>21</v>
@@ -5285,10 +5291,10 @@
         <v>118.0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>31</v>
@@ -5364,7 +5370,7 @@
         <v>414.0</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>60</v>
@@ -5384,10 +5390,10 @@
         <v>415.0</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -5400,10 +5406,10 @@
         <v>416.0</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -5411,16 +5417,16 @@
         <v>214.0</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D21" s="8">
         <v>418.0</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>155</v>
@@ -5436,10 +5442,10 @@
         <v>420.0</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -5452,7 +5458,7 @@
         <v>422.0</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>67</v>
@@ -5475,10 +5481,10 @@
         <v>220.0</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>71</v>
@@ -5491,10 +5497,10 @@
         <v>303.0</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>72</v>
@@ -5519,7 +5525,7 @@
         <v>306.0</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>12</v>
@@ -5548,7 +5554,7 @@
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>81</v>
@@ -5561,10 +5567,10 @@
         <v>312.0</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>82</v>
@@ -5580,7 +5586,7 @@
         <v>150</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>83</v>
@@ -5608,7 +5614,7 @@
         <v>87</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>90</v>

--- a/all_planchette/15.11.2023.xlsx
+++ b/all_planchette/15.11.2023.xlsx
@@ -15,205 +15,535 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="2B7ho9e7yFGY+Miu/RYJ0aTwe931HnxxebEEwUS0Gy8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="pr1SokApeXWfVDr3Nl4XV1mBuq4oOwXSIo2XHlHV7GQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="197">
   <si>
     <t>Пара 1</t>
   </si>
   <si>
-    <t>66.0% заполненость корпус Тургеневский</t>
+    <t>56.0% заполненость корпус Тургеневский</t>
+  </si>
+  <si>
+    <t>РТ-41</t>
+  </si>
+  <si>
+    <t>Толкачев В.Н.</t>
+  </si>
+  <si>
+    <t>ИС-17</t>
+  </si>
+  <si>
+    <t>Троилина В.С.</t>
+  </si>
+  <si>
+    <t>ИС-13</t>
+  </si>
+  <si>
+    <t>Наливайко Е.П.</t>
+  </si>
+  <si>
+    <t>СА-12</t>
+  </si>
+  <si>
+    <t>Коханова Л.Н.</t>
+  </si>
+  <si>
+    <t>КПК</t>
+  </si>
+  <si>
+    <t>СА-16</t>
+  </si>
+  <si>
+    <t>Зотов М.А.</t>
+  </si>
+  <si>
+    <t>ИКС-31</t>
+  </si>
+  <si>
+    <t>Комов Е.Ю.</t>
+  </si>
+  <si>
+    <t>СА-46</t>
+  </si>
+  <si>
+    <t>Панасевич Д.Г.</t>
+  </si>
+  <si>
+    <t>110а</t>
+  </si>
+  <si>
+    <t>СА-23</t>
+  </si>
+  <si>
+    <t>Данилов А.В.</t>
+  </si>
+  <si>
+    <t>ИКС-11</t>
+  </si>
+  <si>
+    <t>Швец Н.А.</t>
+  </si>
+  <si>
+    <t>ИС-18</t>
+  </si>
+  <si>
+    <t>Старых О.А.</t>
+  </si>
+  <si>
+    <t>СА-14</t>
+  </si>
+  <si>
+    <t>Грицай О.П.</t>
+  </si>
+  <si>
+    <t>114а</t>
+  </si>
+  <si>
+    <t>ИС-14</t>
+  </si>
+  <si>
+    <t>Рожченко Т.В.</t>
+  </si>
+  <si>
+    <t>406а</t>
+  </si>
+  <si>
+    <t>ИКС-13</t>
+  </si>
+  <si>
+    <t>209а</t>
+  </si>
+  <si>
+    <t>СА-15</t>
+  </si>
+  <si>
+    <t>Марышева О.В.</t>
+  </si>
+  <si>
+    <t>СА-11</t>
+  </si>
+  <si>
+    <t>Путинцева Ю.М.</t>
+  </si>
+  <si>
+    <t>210а</t>
+  </si>
+  <si>
+    <t>ПИ-42</t>
+  </si>
+  <si>
+    <t>Сулавко С.Н.</t>
+  </si>
+  <si>
+    <t>ИС-11</t>
+  </si>
+  <si>
+    <t>Рыбальченко Т.Б.</t>
+  </si>
+  <si>
+    <t>ПИ-41</t>
+  </si>
+  <si>
+    <t>ПИ-43</t>
+  </si>
+  <si>
+    <t>СА-17</t>
+  </si>
+  <si>
+    <t>Хайлова Л.В.</t>
+  </si>
+  <si>
+    <t>216а</t>
+  </si>
+  <si>
+    <t>ИКС-32</t>
+  </si>
+  <si>
+    <t>Якубенко С.Я.</t>
+  </si>
+  <si>
+    <t>РТ-31</t>
+  </si>
+  <si>
+    <t>Зурова А.Е.</t>
+  </si>
+  <si>
+    <t>ИС-16</t>
+  </si>
+  <si>
+    <t>Мельникова М.В.</t>
+  </si>
+  <si>
+    <t>ИБА-31</t>
+  </si>
+  <si>
+    <t>Кротенко Е.М.</t>
+  </si>
+  <si>
+    <t>ПОКС-41b</t>
+  </si>
+  <si>
+    <t>Пивнева М.А.</t>
+  </si>
+  <si>
+    <t>ПОКС-47b</t>
+  </si>
+  <si>
+    <t>Бельчич Д.С.</t>
+  </si>
+  <si>
+    <t>с/з1</t>
+  </si>
+  <si>
+    <t>ПОКС-45w</t>
+  </si>
+  <si>
+    <t>с/з2</t>
+  </si>
+  <si>
+    <t>СА-13</t>
+  </si>
+  <si>
+    <t>Махаева П.А.</t>
+  </si>
+  <si>
+    <t>ИС-15</t>
+  </si>
+  <si>
+    <t>Лютова Л.К.</t>
+  </si>
+  <si>
+    <t>с/з3</t>
+  </si>
+  <si>
+    <t>ИКС-12</t>
+  </si>
+  <si>
+    <t>Корбан С.Н.</t>
+  </si>
+  <si>
+    <t>ПОКС-46w</t>
+  </si>
+  <si>
+    <t>Демиденко А.В.</t>
+  </si>
+  <si>
+    <t>с/з4</t>
+  </si>
+  <si>
+    <t>Соколян В.В.</t>
+  </si>
+  <si>
+    <t>с/з5</t>
+  </si>
+  <si>
+    <t>ИС-12</t>
+  </si>
+  <si>
+    <t>Гуденко О.Н.</t>
+  </si>
+  <si>
+    <t>с/з6</t>
+  </si>
+  <si>
+    <t>с/з7</t>
+  </si>
+  <si>
+    <t>с/з8</t>
+  </si>
+  <si>
+    <t>315а</t>
+  </si>
+  <si>
+    <t>с/з9</t>
+  </si>
+  <si>
+    <t>Общ1-3</t>
+  </si>
+  <si>
+    <t>Общ1-1</t>
+  </si>
+  <si>
+    <t>Общ1</t>
+  </si>
+  <si>
+    <t>СА-33</t>
+  </si>
+  <si>
+    <t>Голенко Д.А.</t>
+  </si>
+  <si>
+    <t>СА-38</t>
+  </si>
+  <si>
+    <t>Общ1-2</t>
+  </si>
+  <si>
+    <t>Пара 2</t>
+  </si>
+  <si>
+    <t>76.0% заполненость корпус Тургеневский</t>
+  </si>
+  <si>
+    <t>Нещадим К.С.</t>
+  </si>
+  <si>
+    <t>Джалагония М.Ш.</t>
+  </si>
+  <si>
+    <t>СК-41</t>
+  </si>
+  <si>
+    <t>СА-37</t>
+  </si>
+  <si>
+    <t>Дегтярев С.С.</t>
+  </si>
+  <si>
+    <t>2-ИС-З</t>
+  </si>
+  <si>
+    <t>Куракова Г.В.</t>
+  </si>
+  <si>
+    <t>ИБТ-32</t>
+  </si>
+  <si>
+    <t>Ермолина Л.В.</t>
+  </si>
+  <si>
+    <t>Кравченко И.Ю.</t>
+  </si>
+  <si>
+    <t>СА-31</t>
+  </si>
+  <si>
+    <t>Алексеенко О.Н.</t>
+  </si>
+  <si>
+    <t>СА-24</t>
+  </si>
+  <si>
+    <t>Каламбет В.Б.</t>
+  </si>
+  <si>
+    <t>СА-27</t>
+  </si>
+  <si>
+    <t>Барна Н.В.</t>
   </si>
   <si>
     <t>ИБТ-31</t>
   </si>
   <si>
-    <t>Толкачев В.Н.</t>
-  </si>
-  <si>
-    <t>ИС-16</t>
-  </si>
-  <si>
-    <t>Дедова А.Д.</t>
-  </si>
-  <si>
-    <t>ИС-15</t>
-  </si>
-  <si>
-    <t>Троилина В.С.</t>
-  </si>
-  <si>
-    <t>МТ-42</t>
-  </si>
-  <si>
-    <t>Згонникова Т.Ф.</t>
-  </si>
-  <si>
-    <t>КПК</t>
-  </si>
-  <si>
-    <t>СА-46</t>
-  </si>
-  <si>
-    <t>Панасевич Д.Г.</t>
-  </si>
-  <si>
-    <t>ИКС-31</t>
-  </si>
-  <si>
-    <t>Комов Е.Ю.</t>
-  </si>
-  <si>
-    <t>ИКС-13</t>
-  </si>
-  <si>
-    <t>Швец Н.А.</t>
-  </si>
-  <si>
-    <t>110а</t>
-  </si>
-  <si>
-    <t>ИС-17</t>
-  </si>
-  <si>
-    <t>Зотов М.А.</t>
+    <t>Студенникова Д.А.</t>
+  </si>
+  <si>
+    <t>СА-25</t>
+  </si>
+  <si>
+    <t>Небратенко Л.В.</t>
+  </si>
+  <si>
+    <t>ИБТ-33</t>
+  </si>
+  <si>
+    <t>Скороходов Г.Ю.</t>
+  </si>
+  <si>
+    <t>СА-34</t>
+  </si>
+  <si>
+    <t>Пузыревский И.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Пара 3</t>
+  </si>
+  <si>
+    <t>90.0% заполненость корпус Тургеневский</t>
+  </si>
+  <si>
+    <t>ИС-31</t>
+  </si>
+  <si>
+    <t>Прыгунова Т.А.</t>
+  </si>
+  <si>
+    <t>Лебедева М.В.</t>
+  </si>
+  <si>
+    <t>СА-45</t>
+  </si>
+  <si>
+    <t>ИКС-33</t>
+  </si>
+  <si>
+    <t>Байбекова И.Г.</t>
+  </si>
+  <si>
+    <t>Алябышева С.Н.</t>
+  </si>
+  <si>
+    <t>Новосельцева Е.Ф.</t>
+  </si>
+  <si>
+    <t>ИКС-23</t>
+  </si>
+  <si>
+    <t>Рыбалка В.В.</t>
+  </si>
+  <si>
+    <t>МТ-41</t>
+  </si>
+  <si>
+    <t>Рязанова Л.Е.</t>
+  </si>
+  <si>
+    <t>Сулавко А.С.</t>
+  </si>
+  <si>
+    <t>ИС-32</t>
+  </si>
+  <si>
+    <t>Холодов Д.С.</t>
+  </si>
+  <si>
+    <t>ИС-41</t>
+  </si>
+  <si>
+    <t>ИС-33</t>
   </si>
   <si>
     <t>СА-44</t>
   </si>
   <si>
-    <t>Дегтярев С.С.</t>
-  </si>
-  <si>
-    <t>ИКС-11</t>
-  </si>
-  <si>
-    <t>Пильгун И.С.</t>
-  </si>
-  <si>
-    <t>114а</t>
-  </si>
-  <si>
-    <t>МТ-43</t>
-  </si>
-  <si>
-    <t>Ермолина Л.В.</t>
-  </si>
-  <si>
-    <t>ИС-13</t>
-  </si>
-  <si>
-    <t>Смолянинова В.А.</t>
-  </si>
-  <si>
-    <t>ИКС-12</t>
-  </si>
-  <si>
-    <t>Кравченко И.Ю.</t>
-  </si>
-  <si>
-    <t>406а</t>
-  </si>
-  <si>
-    <t>СА-16</t>
-  </si>
-  <si>
-    <t>Небратенко Л.В.</t>
-  </si>
-  <si>
-    <t>СА-15</t>
-  </si>
-  <si>
-    <t>Упорова Л.В.</t>
-  </si>
-  <si>
-    <t>209а</t>
-  </si>
-  <si>
-    <t>СА-17</t>
-  </si>
-  <si>
-    <t>Марышева О.В.</t>
-  </si>
-  <si>
-    <t>СА-13</t>
-  </si>
-  <si>
-    <t>Грицай О.П.</t>
-  </si>
-  <si>
-    <t>210а</t>
-  </si>
-  <si>
-    <t>ПИ-42</t>
-  </si>
-  <si>
-    <t>Сулавко С.Н.</t>
-  </si>
-  <si>
-    <t>ИС-14</t>
-  </si>
-  <si>
-    <t>Рыбальченко Т.Б.</t>
-  </si>
-  <si>
-    <t>ПИ-41</t>
+    <t>Турянский И.П.</t>
+  </si>
+  <si>
+    <t>СА-35</t>
+  </si>
+  <si>
+    <t>Швачич Д.С.</t>
+  </si>
+  <si>
+    <t>ИС-36</t>
+  </si>
+  <si>
+    <t>Гузов А.В.</t>
+  </si>
+  <si>
+    <t>Пара 4</t>
+  </si>
+  <si>
+    <t>92.0% заполненость корпус Тургеневский</t>
+  </si>
+  <si>
+    <t>ИС-23</t>
+  </si>
+  <si>
+    <t>Иванов В.С.</t>
+  </si>
+  <si>
+    <t>ИС-26</t>
+  </si>
+  <si>
+    <t>Арутюнян М.М.</t>
+  </si>
+  <si>
+    <t>ИС-38</t>
   </si>
   <si>
     <t>СА-36</t>
   </si>
   <si>
-    <t>Зурова А.Е.</t>
-  </si>
-  <si>
-    <t>ПИ-43</t>
-  </si>
-  <si>
-    <t>СА-12</t>
-  </si>
-  <si>
-    <t>Путинцева Ю.М.</t>
-  </si>
-  <si>
-    <t>ИС-11</t>
-  </si>
-  <si>
-    <t>Хайлова Л.В.</t>
-  </si>
-  <si>
-    <t>216а</t>
-  </si>
-  <si>
-    <t>ИКС-32</t>
-  </si>
-  <si>
-    <t>Якубенко С.Я.</t>
-  </si>
-  <si>
-    <t>СА-14</t>
-  </si>
-  <si>
-    <t>Чепурная Е.Г.</t>
-  </si>
-  <si>
-    <t>ПОКС-47b</t>
-  </si>
-  <si>
-    <t>Бельчич Д.С.</t>
-  </si>
-  <si>
-    <t>ИБА-31</t>
-  </si>
-  <si>
-    <t>Кротенко Е.М.</t>
-  </si>
-  <si>
-    <t>ПОКС-45w</t>
+    <t>СА-42</t>
+  </si>
+  <si>
+    <t>Заводнов Н.А.</t>
+  </si>
+  <si>
+    <t>СА-22</t>
+  </si>
+  <si>
+    <t>Болховитина О.И.</t>
+  </si>
+  <si>
+    <t>ИКС-22</t>
+  </si>
+  <si>
+    <t>ИС-22</t>
+  </si>
+  <si>
+    <t>Голиченко П.С.</t>
+  </si>
+  <si>
+    <t>Жарехина И.М.</t>
+  </si>
+  <si>
+    <t>СА-26</t>
+  </si>
+  <si>
+    <t>Романенко Е.Л.</t>
+  </si>
+  <si>
+    <t>ИБА-23</t>
+  </si>
+  <si>
+    <t>Столярова Ю.Б.</t>
+  </si>
+  <si>
+    <t>Мельникова</t>
+  </si>
+  <si>
+    <t>Згонников Е.Ф.</t>
+  </si>
+  <si>
+    <t>ПОКС-44w</t>
+  </si>
+  <si>
+    <t>СА-21</t>
+  </si>
+  <si>
+    <t>Пустоветова С.Ю.</t>
+  </si>
+  <si>
+    <t>ИС-21</t>
+  </si>
+  <si>
+    <t>Петрова М.Е.</t>
+  </si>
+  <si>
+    <t>ИС-25</t>
+  </si>
+  <si>
+    <t>ИС-27</t>
+  </si>
+  <si>
+    <t>ИКС-21</t>
+  </si>
+  <si>
+    <t>Войнова Е.С.</t>
+  </si>
+  <si>
+    <t>Задорожный К.А.</t>
+  </si>
+  <si>
+    <t>Кошкина А.А.</t>
+  </si>
+  <si>
+    <t>Пара 5</t>
+  </si>
+  <si>
+    <t>84.0% заполненость корпус Тургеневский</t>
   </si>
   <si>
     <t>ПОКС-42b</t>
@@ -222,424 +552,67 @@
     <t>Дозорова Е.В.</t>
   </si>
   <si>
-    <t>ПОКС-41b</t>
-  </si>
-  <si>
-    <t>Пивнева М.А.</t>
-  </si>
-  <si>
-    <t>ИС-18</t>
-  </si>
-  <si>
-    <t>Видинеева Е.А.</t>
-  </si>
-  <si>
-    <t>с/з1</t>
-  </si>
-  <si>
-    <t>с/з2</t>
-  </si>
-  <si>
-    <t>с/з3</t>
-  </si>
-  <si>
-    <t>ИС-12</t>
-  </si>
-  <si>
-    <t>Гуденко О.Н.</t>
-  </si>
-  <si>
-    <t>с/з4</t>
-  </si>
-  <si>
-    <t>СА-11</t>
-  </si>
-  <si>
-    <t>Королькова О.В.</t>
-  </si>
-  <si>
-    <t>с/з5</t>
-  </si>
-  <si>
-    <t>с/з6</t>
-  </si>
-  <si>
-    <t>315а</t>
-  </si>
-  <si>
-    <t>с/з7</t>
-  </si>
-  <si>
-    <t>с/з8</t>
-  </si>
-  <si>
-    <t>с/з9</t>
-  </si>
-  <si>
-    <t>Общ1-3</t>
-  </si>
-  <si>
-    <t>СА-38</t>
-  </si>
-  <si>
-    <t>Згонников Е.Ф.</t>
-  </si>
-  <si>
-    <t>Общ1-1</t>
-  </si>
-  <si>
-    <t>Общ1</t>
-  </si>
-  <si>
-    <t>2-ИС-З</t>
-  </si>
-  <si>
-    <t>Кошкина А.А.</t>
-  </si>
-  <si>
-    <t>СА-33</t>
-  </si>
-  <si>
-    <t>Голенко Д.А.</t>
-  </si>
-  <si>
-    <t>Общ1-2</t>
-  </si>
-  <si>
-    <t>Пара 2</t>
-  </si>
-  <si>
-    <t>90.0% заполненость корпус Тургеневский</t>
-  </si>
-  <si>
-    <t>Прыгунова Т.А.</t>
-  </si>
-  <si>
-    <t>Наливайко Е.П.</t>
-  </si>
-  <si>
-    <t>Джалагония М.Ш.</t>
-  </si>
-  <si>
-    <t>СА-26</t>
-  </si>
-  <si>
-    <t>Данилов А.В.</t>
-  </si>
-  <si>
-    <t>ИБА-32</t>
-  </si>
-  <si>
-    <t>Карачевцева Д.Г.</t>
-  </si>
-  <si>
-    <t>РТ-31</t>
-  </si>
-  <si>
-    <t>Старых О.А.</t>
-  </si>
-  <si>
-    <t>Рожченко Т.В.</t>
-  </si>
-  <si>
-    <t>ИКС-11/СА-14</t>
-  </si>
-  <si>
-    <t>СА-31</t>
-  </si>
-  <si>
-    <t>Алексеенко О.Н.</t>
-  </si>
-  <si>
-    <t>СА-42</t>
-  </si>
-  <si>
-    <t>Григорьева Л.Ф.</t>
-  </si>
-  <si>
-    <t>Новосельцева Е.Ф.</t>
-  </si>
-  <si>
-    <t>Соколян В.В.</t>
-  </si>
-  <si>
-    <t>ИС-26</t>
-  </si>
-  <si>
-    <t>Каламбет В.Б.</t>
-  </si>
-  <si>
-    <t>МТ-41</t>
-  </si>
-  <si>
-    <t>Рязанова Л.Е.</t>
-  </si>
-  <si>
-    <t>ИКС-33</t>
-  </si>
-  <si>
-    <t>Говорова О.А.</t>
-  </si>
-  <si>
-    <t>ПОКС-46w</t>
-  </si>
-  <si>
-    <t>Демиденко А.В.</t>
-  </si>
-  <si>
-    <t>СА-34</t>
-  </si>
-  <si>
-    <t>Пузыревский И.А.</t>
-  </si>
-  <si>
-    <t>Пара 3</t>
-  </si>
-  <si>
-    <t>98.0% заполненость корпус Тургеневский</t>
-  </si>
-  <si>
-    <t>ИБТ-32</t>
-  </si>
-  <si>
-    <t>СА-22</t>
-  </si>
-  <si>
-    <t>Пустоветова С.Ю.</t>
+    <t>ИБТ-21</t>
+  </si>
+  <si>
+    <t>СА-43</t>
+  </si>
+  <si>
+    <t>Бурлуцкая А.В.</t>
+  </si>
+  <si>
+    <t>СА-32</t>
+  </si>
+  <si>
+    <t>СА-41</t>
+  </si>
+  <si>
+    <t>Попова А.Ю.</t>
+  </si>
+  <si>
+    <t>ИС-34</t>
+  </si>
+  <si>
+    <t>Мальцева И.Е.</t>
+  </si>
+  <si>
+    <t>ИС-35</t>
   </si>
   <si>
     <t>ИС-24</t>
   </si>
   <si>
-    <t>ИС-31</t>
-  </si>
-  <si>
-    <t>Чубарова А.Б.</t>
-  </si>
-  <si>
-    <t>СА-23</t>
-  </si>
-  <si>
-    <t>СА-21</t>
-  </si>
-  <si>
-    <t>Столярова Ю.Б.</t>
-  </si>
-  <si>
-    <t>Болховитина О.И.</t>
-  </si>
-  <si>
-    <t>ИС-25</t>
-  </si>
-  <si>
-    <t>ИКС-21</t>
-  </si>
-  <si>
-    <t>Жарехина И.М.</t>
-  </si>
-  <si>
-    <t>Студенникова Д.А.</t>
-  </si>
-  <si>
-    <t>ИБА-33</t>
-  </si>
-  <si>
-    <t>ИС-41</t>
-  </si>
-  <si>
-    <t>Мельникова М.В.</t>
-  </si>
-  <si>
-    <t>СК-41</t>
-  </si>
-  <si>
-    <t>Махаева П.А.</t>
-  </si>
-  <si>
-    <t>Коханова Л.Н.</t>
-  </si>
-  <si>
-    <t>Ужегова Е.А.</t>
-  </si>
-  <si>
-    <t>Гузов А.В.</t>
-  </si>
-  <si>
-    <t>Турянский И.П.</t>
-  </si>
-  <si>
-    <t>Пара 4</t>
-  </si>
-  <si>
-    <t>94.0% заполненость корпус Тургеневский</t>
-  </si>
-  <si>
-    <t>ИС-36</t>
-  </si>
-  <si>
-    <t>ИС-32</t>
-  </si>
-  <si>
-    <t>СА-43</t>
-  </si>
-  <si>
-    <t>Бурлуцкая А.В.</t>
-  </si>
-  <si>
-    <t>Холодов Д.С.</t>
-  </si>
-  <si>
-    <t>Алешина В.В.</t>
-  </si>
-  <si>
-    <t>СА-37</t>
-  </si>
-  <si>
-    <t>Ягелович Е.В.</t>
-  </si>
-  <si>
-    <t>ИКС-22</t>
-  </si>
-  <si>
-    <t>ИС-22</t>
-  </si>
-  <si>
-    <t>СА-45</t>
-  </si>
-  <si>
-    <t>ИКС-23</t>
-  </si>
-  <si>
-    <t>Рыбалка В.В.</t>
-  </si>
-  <si>
-    <t>ИС-23</t>
-  </si>
-  <si>
-    <t>СА-32</t>
-  </si>
-  <si>
-    <t>ИС-21</t>
+    <t>ИС-28</t>
+  </si>
+  <si>
+    <t>Бурда Е.Г.</t>
+  </si>
+  <si>
+    <t>Пара 6</t>
+  </si>
+  <si>
+    <t>48.0% заполненость корпус Тургеневский</t>
+  </si>
+  <si>
+    <t>Серов А.О.</t>
   </si>
   <si>
     <t>ИС-37</t>
   </si>
   <si>
-    <t>Сулавко А.С.</t>
-  </si>
-  <si>
-    <t>СА-27</t>
-  </si>
-  <si>
-    <t>Петрова М.Е.</t>
-  </si>
-  <si>
-    <t>ПОКС-44w</t>
-  </si>
-  <si>
-    <t>ИБТ-22</t>
-  </si>
-  <si>
-    <t>Скороходов Г.Ю.</t>
-  </si>
-  <si>
-    <t>Корбан С.Н.</t>
-  </si>
-  <si>
-    <t>классный час</t>
-  </si>
-  <si>
-    <t>Бурда Е.Г.</t>
-  </si>
-  <si>
-    <t>ИС-38</t>
-  </si>
-  <si>
-    <t>тен</t>
-  </si>
-  <si>
-    <t>Пара 5</t>
-  </si>
-  <si>
-    <t>78.0% заполненость корпус Тургеневский</t>
-  </si>
-  <si>
-    <t>Лебедева М.В.</t>
-  </si>
-  <si>
-    <t>ИС-27</t>
-  </si>
-  <si>
-    <t>СА-41</t>
-  </si>
-  <si>
-    <t>Попова А.Ю.</t>
-  </si>
-  <si>
-    <t>СА-35</t>
-  </si>
-  <si>
-    <t>Ващенко В.А.</t>
-  </si>
-  <si>
-    <t>ИС-34</t>
-  </si>
-  <si>
-    <t>ИС-28</t>
-  </si>
-  <si>
-    <t>Нещадим К.С.</t>
-  </si>
-  <si>
-    <t>СА-25/СА-24</t>
-  </si>
-  <si>
-    <t>ИС-35</t>
-  </si>
-  <si>
-    <t>Родченко Т.В.</t>
-  </si>
-  <si>
-    <t>Пара 6</t>
-  </si>
-  <si>
-    <t>60.0% заполненость корпус Тургеневский</t>
-  </si>
-  <si>
-    <t>СА-24</t>
-  </si>
-  <si>
-    <t>ИБТ-23</t>
-  </si>
-  <si>
-    <t>Трищук С.А.</t>
-  </si>
-  <si>
-    <t>СА-25</t>
-  </si>
-  <si>
-    <t>ИС-33</t>
-  </si>
-  <si>
     <t>Пара 7</t>
   </si>
   <si>
-    <t>56.0% заполненость корпус Тургеневский</t>
-  </si>
-  <si>
-    <t>Серов А.О.</t>
-  </si>
-  <si>
-    <t>Арутюнян А.Э.</t>
+    <t>32.0% заполненость корпус Тургеневский</t>
+  </si>
+  <si>
+    <t>Зурова</t>
   </si>
   <si>
     <t>Манакова О.П.</t>
   </si>
   <si>
     <t>Щипанкина А.А.</t>
-  </si>
-  <si>
-    <t>Паюсов П.С.</t>
   </si>
 </sst>
 </file>
@@ -650,7 +623,7 @@
     <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
     <numFmt numFmtId="165" formatCode="d.m.yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -661,14 +634,16 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
@@ -676,10 +651,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -696,7 +674,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border/>
     <border>
       <left style="thin">
@@ -705,17 +683,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -746,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -759,8 +726,8 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -771,56 +738,76 @@
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1073,7 +1060,7 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1">
-        <v>45245.0</v>
+        <v>45247.0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1110,28 +1097,24 @@
       <c r="D3" s="2">
         <v>318.0</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="2">
         <v>103.0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
         <v>320.0</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="2">
@@ -1140,22 +1123,26 @@
       <c r="D5" s="2">
         <v>322.0</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="2">
         <v>106.0</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="2">
         <v>323.0</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1163,10 +1150,10 @@
       <c r="A7" s="2">
         <v>109.0</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2">
@@ -1203,60 +1190,58 @@
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" s="2">
         <v>326.0</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="2">
         <v>111.0</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
       <c r="D10" s="7">
         <v>401.0</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="2">
         <v>114.0</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="D11" s="7">
         <v>404.0</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>22</v>
+      <c r="E11" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="2">
         <v>406.0</v>
       </c>
@@ -1271,90 +1256,78 @@
       <c r="A13" s="2">
         <v>118.0</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="2">
         <v>121.0</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
       <c r="D14" s="2">
         <v>408.0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="2">
         <v>122.0</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="2">
         <v>410.0</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="2">
         <v>411.0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="2">
         <v>210.0</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="D17" s="2">
         <v>412.0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="2">
         <v>414.0</v>
       </c>
@@ -1363,56 +1336,52 @@
       <c r="A19" s="2">
         <v>212.0</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="2">
         <v>415.0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="2">
         <v>213.0</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>45</v>
+      <c r="B20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="D20" s="2">
         <v>415.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="2">
         <v>214.0</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="2">
         <v>415.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -1420,55 +1389,51 @@
         <v>216.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D22" s="2">
         <v>416.0</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="D23" s="2">
         <v>418.0</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="E23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="2">
         <v>217.0</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="2">
         <v>420.0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -1476,219 +1441,229 @@
         <v>220.0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D25" s="2">
-        <v>420.0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>60</v>
+        <v>422.0</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="2">
         <v>303.0</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="2">
-        <v>422.0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>67</v>
+      <c r="B26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="2">
-        <v>305.0</v>
+        <v>303.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
-        <v>306.0</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+        <v>305.0</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2">
-        <v>307.0</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+        <v>306.0</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="D29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2">
-        <v>310.0</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>74</v>
+        <v>307.0</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="2">
-        <v>312.0</v>
+        <v>310.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
-        <v>314.0</v>
+        <v>312.0</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="A33" s="2">
+        <v>314.0</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="A34" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="D34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+        <v>79</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="15"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="A37" s="14"/>
+      <c r="D37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="7" t="s">
+    </row>
+    <row r="38" ht="12.75" customHeight="1">
+      <c r="A38" s="14"/>
+      <c r="D38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F38" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="A39" s="14"/>
+      <c r="D39" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="15"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="15"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>92</v>
-      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
-      <c r="D40" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-    </row>
+      <c r="D40" s="14"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" ht="12.75" customHeight="1">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" ht="12.75" customHeight="1">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+    </row>
+    <row r="43" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
@@ -1719,14 +1694,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="16">
-        <v>45245.0</v>
+      <c r="A1" s="18">
+        <v>45247.0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1758,10 +1733,10 @@
         <v>318.0</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
@@ -1769,69 +1744,55 @@
         <v>103.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
         <v>320.0</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>96</v>
-      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="2">
         <v>104.0</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" s="2">
         <v>322.0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="2">
         <v>106.0</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="2">
         <v>323.0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="2">
         <v>109.0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2">
@@ -1869,39 +1830,33 @@
         <v>17</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
         <v>326.0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="2">
         <v>111.0</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="D10" s="2">
         <v>401.0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -1909,39 +1864,39 @@
         <v>114.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
         <v>404.0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="D12" s="2">
         <v>406.0</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
+      <c r="E12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -1949,69 +1904,69 @@
         <v>118.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="2">
         <v>121.0</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>108</v>
+      <c r="B14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="D14" s="2">
         <v>408.0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="2">
         <v>122.0</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="2">
         <v>410.0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>411.0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -2019,89 +1974,89 @@
         <v>210.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>412.0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D18" s="7">
         <v>414.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="2">
         <v>212.0</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>116</v>
-      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="2">
-        <v>415.0</v>
+        <v>414.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="2">
         <v>213.0</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="D20" s="2">
         <v>415.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="2">
         <v>214.0</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>48</v>
+      <c r="B21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="D21" s="2">
         <v>415.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -2109,95 +2064,99 @@
         <v>216.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D22" s="2">
-        <v>416.0</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>68</v>
+        <v>415.0</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="D23" s="2">
-        <v>418.0</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>118</v>
+        <v>416.0</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="2">
         <v>217.0</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>10</v>
+      <c r="B24" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="D24" s="2">
-        <v>420.0</v>
+        <v>418.0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="2">
         <v>220.0</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>62</v>
+      <c r="B25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="D25" s="2">
         <v>420.0</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>63</v>
+      <c r="E25" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="2">
         <v>303.0</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="D26" s="2">
-        <v>422.0</v>
+        <v>420.0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -2205,57 +2164,69 @@
         <v>305.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="D27" s="2">
+        <v>422.0</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
         <v>306.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2">
         <v>307.0</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="D29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2">
         <v>310.0</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -2264,128 +2235,124 @@
       <c r="A31" s="2">
         <v>312.0</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
         <v>314.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+        <v>78</v>
+      </c>
       <c r="D33" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="14"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="A35" s="6"/>
       <c r="D35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" ht="12.75" customHeight="1">
+      <c r="A36" s="14"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="D37" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" ht="12.75" customHeight="1">
+      <c r="A38" s="14"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="7" t="s">
+    </row>
+    <row r="40" ht="12.75" customHeight="1">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F40" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" ht="12.75" customHeight="1">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="20" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="15"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="15"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="14"/>
-    </row>
+      <c r="E41" s="17"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
@@ -2416,14 +2383,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="18">
-        <v>45245.0</v>
+      <c r="A1" s="21">
+        <v>45247.0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -2439,7 +2406,7 @@
         <v>316.0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -2449,89 +2416,89 @@
       <c r="A3" s="2">
         <v>6.0</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="2">
         <v>318.0</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="2">
         <v>103.0</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="2">
         <v>320.0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="2">
         <v>104.0</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="2">
         <v>322.0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="2">
         <v>106.0</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>130</v>
+      <c r="B6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="D6" s="2">
         <v>323.0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="2">
         <v>109.0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2">
         <v>324.0</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
+      <c r="E7" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
@@ -2542,7 +2509,7 @@
         <v>110.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>14</v>
@@ -2551,7 +2518,7 @@
         <v>325.0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>16</v>
@@ -2562,19 +2529,19 @@
         <v>17</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
-        <v>326.0</v>
+        <v>325.0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -2582,19 +2549,19 @@
         <v>111.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
-        <v>401.0</v>
+        <v>326.0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -2602,39 +2569,39 @@
         <v>114.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D11" s="2">
-        <v>404.0</v>
+        <v>401.0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="D12" s="2">
-        <v>406.0</v>
+        <v>404.0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -2642,471 +2609,443 @@
         <v>118.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+        <v>98</v>
+      </c>
+      <c r="D13" s="2">
+        <v>406.0</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="2">
-        <v>118.0</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2">
-        <v>408.0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>110</v>
-      </c>
+        <v>121.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="2">
-        <v>121.0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>108</v>
+        <v>122.0</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D15" s="2">
+        <v>408.0</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="2">
         <v>410.0</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="2">
-        <v>122.0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="E16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="2">
+        <v>210.0</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2">
         <v>411.0</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="E17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>412.0</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="2">
-        <v>210.0</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="E18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="2">
+        <v>212.0</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="2">
         <v>414.0</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2">
-        <v>415.0</v>
-      </c>
       <c r="E19" s="7" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="2">
-        <v>212.0</v>
+        <v>213.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2">
-        <v>415.0</v>
+        <v>414.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="2">
-        <v>213.0</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>137</v>
+        <v>214.0</v>
       </c>
       <c r="D21" s="2">
         <v>415.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="2">
-        <v>214.0</v>
+        <v>216.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="D22" s="2">
+        <v>415.0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="2">
         <v>416.0</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="2">
-        <v>216.0</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="E23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="2">
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="A24" s="2">
+        <v>217.0</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="2">
         <v>418.0</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="2">
-        <v>420.0</v>
-      </c>
       <c r="E24" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="2">
-        <v>217.0</v>
+        <v>220.0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D25" s="2">
         <v>420.0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="2">
-        <v>220.0</v>
+        <v>303.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D26" s="2">
-        <v>422.0</v>
+        <v>420.0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="2">
-        <v>303.0</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>305.0</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="2">
+        <v>422.0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
-        <v>305.0</v>
+        <v>306.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2">
-        <v>306.0</v>
+        <v>307.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2">
-        <v>307.0</v>
+        <v>310.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="2">
-        <v>310.0</v>
+        <v>312.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
-        <v>312.0</v>
+        <v>314.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+        <v>72</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="2">
-        <v>314.0</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>122</v>
+      <c r="A33" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="14"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
       <c r="D35" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="9"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="A37" s="6"/>
+      <c r="D37" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" ht="12.75" customHeight="1">
+      <c r="A38" s="14"/>
+      <c r="D38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="A39" s="14"/>
+      <c r="D39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="D37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="15"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="15"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
@@ -3114,10 +3053,24 @@
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+        <v>82</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" ht="12.75" customHeight="1">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3150,13 +3103,13 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1">
-        <v>45245.0</v>
+        <v>45247.0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -3172,7 +3125,7 @@
         <v>316.0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -3182,92 +3135,82 @@
       <c r="A3" s="2">
         <v>6.0</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="2">
         <v>318.0</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="2">
         <v>103.0</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="D4" s="2">
         <v>320.0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="2">
         <v>104.0</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="D5" s="2">
         <v>322.0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="2">
         <v>106.0</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>130</v>
-      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="2">
-        <v>323.0</v>
+        <v>322.0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="2">
         <v>109.0</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>324.0</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>60</v>
+        <v>323.0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -3275,19 +3218,19 @@
         <v>110.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
         <v>324.0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -3295,19 +3238,19 @@
         <v>17</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
         <v>325.0</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>155</v>
+      <c r="E9" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -3315,527 +3258,554 @@
         <v>111.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
-        <v>325.0</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>65</v>
+        <v>326.0</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="2">
         <v>114.0</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" s="2">
-        <v>326.0</v>
+        <v>401.0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="D12" s="2">
-        <v>401.0</v>
+        <v>404.0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="2">
         <v>118.0</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>157</v>
+      <c r="B13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="D13" s="2">
-        <v>404.0</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>406.0</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="2">
-        <v>121.0</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2">
-        <v>406.0</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>118.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="2">
         <v>121.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="D15" s="2">
+        <v>408.0</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2">
+        <v>121.0</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2">
+        <v>410.0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="2">
         <v>122.0</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="2">
-        <v>408.0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="D17" s="2">
+        <v>411.0</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="2">
+        <v>412.0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="2">
+        <v>210.0</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="2">
+        <v>414.0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="2">
-        <v>410.0</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="2">
-        <v>210.0</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="2">
-        <v>411.0</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="2">
-        <v>412.0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="2">
-        <v>212.0</v>
-      </c>
       <c r="B20" s="2" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="D20" s="2">
-        <v>414.0</v>
+        <v>415.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="2">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D21" s="2">
-        <v>415.0</v>
+        <v>416.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="2">
-        <v>214.0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>138</v>
+        <v>213.0</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="D22" s="2">
-        <v>415.0</v>
+        <v>418.0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="2">
+        <v>214.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="2">
+        <v>420.0</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="A24" s="2">
         <v>216.0</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="2">
-        <v>416.0</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="2">
+        <v>422.0</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="2">
+        <v>422.0</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="F25" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="2">
-        <v>418.0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="2">
-        <v>217.0</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="2">
-        <v>420.0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="2">
-        <v>220.0</v>
+        <v>217.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="D26" s="7">
-        <v>422.0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="2">
-        <v>303.0</v>
+        <v>220.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
-        <v>305.0</v>
+        <v>303.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2">
-        <v>306.0</v>
+        <v>305.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>173</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2">
-        <v>307.0</v>
+        <v>306.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="2">
-        <v>310.0</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11" t="s">
-        <v>174</v>
+        <v>307.0</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
-        <v>312.0</v>
+        <v>310.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>147</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2">
+        <v>312.0</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="A34" s="7">
         <v>314.0</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="7" t="s">
+      <c r="B34" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" ht="12.75" customHeight="1">
+      <c r="A35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="E35" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="9"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="9"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="D37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+        <v>82</v>
+      </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="9"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="D38" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
+        <v>86</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="9"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="A39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="A40" s="6"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" ht="12.75" customHeight="1">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3867,14 +3837,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>177</v>
+      <c r="A1" s="28">
+        <v>45247.0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -3889,15 +3859,15 @@
       <c r="D2" s="2">
         <v>316.0</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="2">
         <v>6.0</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="2">
         <v>318.0</v>
       </c>
@@ -3909,19 +3879,19 @@
         <v>103.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="D4" s="2">
         <v>320.0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
@@ -3929,59 +3899,53 @@
         <v>104.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="D5" s="2">
         <v>322.0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="2">
         <v>106.0</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="D6" s="2">
         <v>323.0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="2">
         <v>109.0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2">
         <v>324.0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -3989,19 +3953,19 @@
         <v>110.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="D8" s="2">
         <v>325.0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -4009,19 +3973,19 @@
         <v>17</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
         <v>326.0</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>162</v>
+      <c r="E9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -4029,57 +3993,67 @@
         <v>111.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
         <v>401.0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="2">
         <v>114.0</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" s="2">
         <v>404.0</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="D12" s="2">
         <v>406.0</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="2">
         <v>118.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -4088,52 +4062,60 @@
       <c r="A14" s="2">
         <v>121.0</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>183</v>
+      <c r="B14" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="D14" s="2">
         <v>408.0</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="E14" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="2">
         <v>122.0</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="2">
         <v>410.0</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="E15" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="D16" s="2">
         <v>411.0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -4141,53 +4123,49 @@
         <v>210.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="D17" s="2">
         <v>412.0</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="D18" s="2">
         <v>414.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="2">
         <v>212.0</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="2">
         <v>415.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -4195,19 +4173,19 @@
         <v>213.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="D20" s="2">
         <v>416.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -4215,265 +4193,274 @@
         <v>214.0</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="D21" s="2">
         <v>418.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="2">
         <v>216.0</v>
       </c>
+      <c r="B22" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="D22" s="2">
         <v>420.0</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>154</v>
+      <c r="E22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="2">
         <v>420.0</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>60</v>
+      <c r="E23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="2">
         <v>217.0</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>33</v>
+      <c r="B24" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>170</v>
       </c>
       <c r="D24" s="2">
         <v>422.0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="2">
         <v>220.0</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>62</v>
+      <c r="B25" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="2">
         <v>303.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>173</v>
+        <v>60</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="2">
         <v>305.0</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
       <c r="D27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>146</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
         <v>306.0</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2">
         <v>307.0</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>145</v>
+      <c r="B29" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2">
         <v>310.0</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="2">
         <v>312.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
         <v>314.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E34" s="7" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+        <v>81</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="D36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+        <v>82</v>
+      </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4506,13 +4493,13 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1">
-        <v>45245.0</v>
+        <v>45247.0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -4527,15 +4514,15 @@
       <c r="D2" s="2">
         <v>316.0</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="2">
         <v>6.0</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="2">
         <v>318.0</v>
       </c>
@@ -4546,76 +4533,68 @@
       <c r="A4" s="2">
         <v>103.0</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="2">
         <v>320.0</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="2">
         <v>104.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="D5" s="2">
         <v>322.0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="2">
         <v>106.0</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>130</v>
-      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="2">
         <v>323.0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="2">
         <v>109.0</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2">
         <v>324.0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -4623,106 +4602,98 @@
         <v>110.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="D8" s="7">
         <v>325.0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="7">
         <v>326.0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="2">
         <v>111.0</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="7">
         <v>401.0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="2">
         <v>114.0</v>
       </c>
-      <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="2">
         <v>404.0</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="2">
         <v>406.0</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="2">
         <v>118.0</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="2">
         <v>121.0</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>183</v>
+      <c r="B14" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="D14" s="2">
         <v>408.0</v>
@@ -4732,102 +4703,96 @@
       <c r="A15" s="2">
         <v>122.0</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="2">
         <v>410.0</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>12</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="2">
         <v>411.0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="2">
         <v>210.0</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>183</v>
+      </c>
       <c r="D17" s="2">
         <v>412.0</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="F17" s="7" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="2">
         <v>414.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="2">
         <v>212.0</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="2">
         <v>415.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="2">
         <v>213.0</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>133</v>
-      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="2">
         <v>416.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -4835,151 +4800,147 @@
         <v>214.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="D21" s="2">
         <v>418.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="2">
         <v>216.0</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="B22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="D22" s="2">
         <v>420.0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="2">
-        <v>422.0</v>
+        <v>420.0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="2">
         <v>217.0</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="2">
+        <v>422.0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="2">
         <v>220.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="2">
         <v>303.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+        <v>60</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="2">
         <v>305.0</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
         <v>306.0</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2">
         <v>307.0</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2">
         <v>310.0</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -4989,81 +4950,77 @@
         <v>312.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
         <v>314.0</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>185</v>
-      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+        <v>77</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="A34" s="6"/>
+      <c r="D34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="6"/>
       <c r="D35" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+        <v>81</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+        <v>82</v>
+      </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" ht="12.75" customHeight="1">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5095,14 +5052,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="23">
-        <v>45245.0</v>
+      <c r="A1" s="32">
+        <v>45247.0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>200</v>
+        <v>192</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>193</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -5112,81 +5069,61 @@
       <c r="A2" s="8">
         <v>5.0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="8">
         <v>316.0</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="8">
         <v>6.0</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="8">
         <v>318.0</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="8">
         <v>103.0</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>180</v>
-      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="8">
         <v>320.0</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="26">
+      <c r="A5" s="34">
         <v>104.0</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>127</v>
-      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="8">
         <v>322.0</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>201</v>
-      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="8">
         <v>106.0</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>130</v>
-      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="8">
         <v>323.0</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>98</v>
-      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="8">
@@ -5202,10 +5139,10 @@
         <v>324.0</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -5225,27 +5162,27 @@
         <v>186</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>153</v>
+      <c r="B9" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="D9" s="8">
         <v>326.0</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>196</v>
+      <c r="E9" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -5258,27 +5195,27 @@
         <v>401.0</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="8">
         <v>114.0</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="8">
         <v>404.0</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -5291,16 +5228,16 @@
         <v>118.0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+        <v>29</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="8">
@@ -5322,58 +5259,60 @@
       <c r="A15" s="8">
         <v>122.0</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="8">
         <v>410.0</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="8">
         <v>411.0</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="E16" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="8">
         <v>210.0</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="B17" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="D17" s="8">
         <v>412.0</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="F17" s="7" t="s">
-        <v>134</v>
-      </c>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="27"/>
+        <v>36</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="8">
         <v>414.0</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -5390,10 +5329,10 @@
         <v>415.0</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>185</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -5405,52 +5344,38 @@
       <c r="D20" s="8">
         <v>416.0</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>202</v>
-      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="8">
         <v>214.0</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>162</v>
-      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="8">
         <v>418.0</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="8">
         <v>216.0</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="8">
         <v>420.0</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -5458,10 +5383,10 @@
         <v>422.0</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -5471,79 +5396,79 @@
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
+        <v>58</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="8">
         <v>220.0</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
+        <v>60</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="8">
         <v>303.0</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>172</v>
+      <c r="B26" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+        <v>65</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="8">
         <v>305.0</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+        <v>70</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="8">
         <v>306.0</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+        <v>72</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="8">
         <v>307.0</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -5552,93 +5477,85 @@
       <c r="A30" s="8">
         <v>310.0</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
+        <v>76</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="8">
         <v>312.0</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
+        <v>77</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="8">
         <v>314.0</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>205</v>
-      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+        <v>79</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="D34" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>90</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="A35" s="27"/>
       <c r="D35" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
+        <v>82</v>
+      </c>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="25"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
+        <v>86</v>
+      </c>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
